--- a/dados.xlsx
+++ b/dados.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>salario_total</t>
+          <t>salario_bruto</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2147,7 +2147,7 @@
         <v>7800</v>
       </c>
       <c r="C66" t="n">
-        <v>910.8200000000001</v>
+        <v>908.85</v>
       </c>
       <c r="D66" t="n">
         <v>0.275</v>
@@ -2156,13 +2156,13 @@
         <v>896</v>
       </c>
       <c r="F66" t="n">
-        <v>998.5245000000002</v>
+        <v>999.0662500000001</v>
       </c>
       <c r="G66" t="n">
-        <v>1909.3445</v>
+        <v>1907.91625</v>
       </c>
       <c r="H66" t="n">
-        <v>5890.6555</v>
+        <v>5892.08375</v>
       </c>
     </row>
     <row r="67">
@@ -2173,7 +2173,7 @@
         <v>7900</v>
       </c>
       <c r="C67" t="n">
-        <v>924.8200000000001</v>
+        <v>908.85</v>
       </c>
       <c r="D67" t="n">
         <v>0.275</v>
@@ -2182,13 +2182,13 @@
         <v>896</v>
       </c>
       <c r="F67" t="n">
-        <v>1022.1745</v>
+        <v>1026.56625</v>
       </c>
       <c r="G67" t="n">
-        <v>1946.9945</v>
+        <v>1935.41625</v>
       </c>
       <c r="H67" t="n">
-        <v>5953.005499999999</v>
+        <v>5964.58375</v>
       </c>
     </row>
     <row r="68">
@@ -2199,7 +2199,7 @@
         <v>8000</v>
       </c>
       <c r="C68" t="n">
-        <v>938.8200000000001</v>
+        <v>908.85</v>
       </c>
       <c r="D68" t="n">
         <v>0.275</v>
@@ -2208,13 +2208,13 @@
         <v>896</v>
       </c>
       <c r="F68" t="n">
-        <v>1045.8245</v>
+        <v>1054.06625</v>
       </c>
       <c r="G68" t="n">
-        <v>1984.6445</v>
+        <v>1962.91625</v>
       </c>
       <c r="H68" t="n">
-        <v>6015.3555</v>
+        <v>6037.08375</v>
       </c>
     </row>
     <row r="69">
@@ -2225,7 +2225,7 @@
         <v>8100</v>
       </c>
       <c r="C69" t="n">
-        <v>952.8200000000001</v>
+        <v>908.85</v>
       </c>
       <c r="D69" t="n">
         <v>0.275</v>
@@ -2234,13 +2234,13 @@
         <v>896</v>
       </c>
       <c r="F69" t="n">
-        <v>1069.4745</v>
+        <v>1081.56625</v>
       </c>
       <c r="G69" t="n">
-        <v>2022.2945</v>
+        <v>1990.41625</v>
       </c>
       <c r="H69" t="n">
-        <v>6077.7055</v>
+        <v>6109.58375</v>
       </c>
     </row>
     <row r="70">
@@ -2251,7 +2251,7 @@
         <v>8200</v>
       </c>
       <c r="C70" t="n">
-        <v>966.8200000000001</v>
+        <v>908.85</v>
       </c>
       <c r="D70" t="n">
         <v>0.275</v>
@@ -2260,13 +2260,13 @@
         <v>896</v>
       </c>
       <c r="F70" t="n">
-        <v>1093.1245</v>
+        <v>1109.06625</v>
       </c>
       <c r="G70" t="n">
-        <v>2059.944500000001</v>
+        <v>2017.91625</v>
       </c>
       <c r="H70" t="n">
-        <v>6140.055499999999</v>
+        <v>6182.08375</v>
       </c>
     </row>
     <row r="71">
@@ -2277,7 +2277,7 @@
         <v>8300</v>
       </c>
       <c r="C71" t="n">
-        <v>980.8200000000001</v>
+        <v>908.85</v>
       </c>
       <c r="D71" t="n">
         <v>0.275</v>
@@ -2286,13 +2286,13 @@
         <v>896</v>
       </c>
       <c r="F71" t="n">
-        <v>1116.7745</v>
+        <v>1136.56625</v>
       </c>
       <c r="G71" t="n">
-        <v>2097.5945</v>
+        <v>2045.41625</v>
       </c>
       <c r="H71" t="n">
-        <v>6202.4055</v>
+        <v>6254.58375</v>
       </c>
     </row>
     <row r="72">
@@ -2303,7 +2303,7 @@
         <v>8400</v>
       </c>
       <c r="C72" t="n">
-        <v>994.8200000000001</v>
+        <v>908.85</v>
       </c>
       <c r="D72" t="n">
         <v>0.275</v>
@@ -2312,13 +2312,13 @@
         <v>896</v>
       </c>
       <c r="F72" t="n">
-        <v>1140.4245</v>
+        <v>1164.06625</v>
       </c>
       <c r="G72" t="n">
-        <v>2135.2445</v>
+        <v>2072.91625</v>
       </c>
       <c r="H72" t="n">
-        <v>6264.755499999999</v>
+        <v>6327.08375</v>
       </c>
     </row>
     <row r="73">
@@ -2329,7 +2329,7 @@
         <v>8500</v>
       </c>
       <c r="C73" t="n">
-        <v>1008.82</v>
+        <v>908.85</v>
       </c>
       <c r="D73" t="n">
         <v>0.275</v>
@@ -2338,13 +2338,13 @@
         <v>896</v>
       </c>
       <c r="F73" t="n">
-        <v>1164.0745</v>
+        <v>1191.56625</v>
       </c>
       <c r="G73" t="n">
-        <v>2172.8945</v>
+        <v>2100.41625</v>
       </c>
       <c r="H73" t="n">
-        <v>6327.1055</v>
+        <v>6399.58375</v>
       </c>
     </row>
     <row r="74">
@@ -2355,7 +2355,7 @@
         <v>8600</v>
       </c>
       <c r="C74" t="n">
-        <v>1022.82</v>
+        <v>908.85</v>
       </c>
       <c r="D74" t="n">
         <v>0.275</v>
@@ -2364,13 +2364,13 @@
         <v>896</v>
       </c>
       <c r="F74" t="n">
-        <v>1187.7245</v>
+        <v>1219.06625</v>
       </c>
       <c r="G74" t="n">
-        <v>2210.5445</v>
+        <v>2127.91625</v>
       </c>
       <c r="H74" t="n">
-        <v>6389.4555</v>
+        <v>6472.08375</v>
       </c>
     </row>
     <row r="75">
@@ -2381,7 +2381,7 @@
         <v>8700</v>
       </c>
       <c r="C75" t="n">
-        <v>1036.82</v>
+        <v>908.85</v>
       </c>
       <c r="D75" t="n">
         <v>0.275</v>
@@ -2390,13 +2390,13 @@
         <v>896</v>
       </c>
       <c r="F75" t="n">
-        <v>1211.3745</v>
+        <v>1246.56625</v>
       </c>
       <c r="G75" t="n">
-        <v>2248.194500000001</v>
+        <v>2155.41625</v>
       </c>
       <c r="H75" t="n">
-        <v>6451.805499999999</v>
+        <v>6544.58375</v>
       </c>
     </row>
     <row r="76">
@@ -2407,7 +2407,7 @@
         <v>8800</v>
       </c>
       <c r="C76" t="n">
-        <v>1050.82</v>
+        <v>908.85</v>
       </c>
       <c r="D76" t="n">
         <v>0.275</v>
@@ -2416,13 +2416,13 @@
         <v>896</v>
       </c>
       <c r="F76" t="n">
-        <v>1235.0245</v>
+        <v>1274.06625</v>
       </c>
       <c r="G76" t="n">
-        <v>2285.8445</v>
+        <v>2182.91625</v>
       </c>
       <c r="H76" t="n">
-        <v>6514.1555</v>
+        <v>6617.08375</v>
       </c>
     </row>
     <row r="77">
@@ -2433,7 +2433,7 @@
         <v>8900</v>
       </c>
       <c r="C77" t="n">
-        <v>1064.82</v>
+        <v>908.85</v>
       </c>
       <c r="D77" t="n">
         <v>0.275</v>
@@ -2442,13 +2442,13 @@
         <v>896</v>
       </c>
       <c r="F77" t="n">
-        <v>1258.6745</v>
+        <v>1301.56625</v>
       </c>
       <c r="G77" t="n">
-        <v>2323.4945</v>
+        <v>2210.41625</v>
       </c>
       <c r="H77" t="n">
-        <v>6576.5055</v>
+        <v>6689.58375</v>
       </c>
     </row>
     <row r="78">
@@ -2459,7 +2459,7 @@
         <v>9000</v>
       </c>
       <c r="C78" t="n">
-        <v>1078.82</v>
+        <v>908.85</v>
       </c>
       <c r="D78" t="n">
         <v>0.275</v>
@@ -2468,13 +2468,13 @@
         <v>896</v>
       </c>
       <c r="F78" t="n">
-        <v>1282.3245</v>
+        <v>1329.06625</v>
       </c>
       <c r="G78" t="n">
-        <v>2361.1445</v>
+        <v>2237.91625</v>
       </c>
       <c r="H78" t="n">
-        <v>6638.8555</v>
+        <v>6762.08375</v>
       </c>
     </row>
     <row r="79">
@@ -2485,7 +2485,7 @@
         <v>9100</v>
       </c>
       <c r="C79" t="n">
-        <v>1092.82</v>
+        <v>908.85</v>
       </c>
       <c r="D79" t="n">
         <v>0.275</v>
@@ -2494,13 +2494,13 @@
         <v>896</v>
       </c>
       <c r="F79" t="n">
-        <v>1305.9745</v>
+        <v>1356.56625</v>
       </c>
       <c r="G79" t="n">
-        <v>2398.7945</v>
+        <v>2265.41625</v>
       </c>
       <c r="H79" t="n">
-        <v>6701.2055</v>
+        <v>6834.58375</v>
       </c>
     </row>
     <row r="80">
@@ -2511,7 +2511,7 @@
         <v>9200</v>
       </c>
       <c r="C80" t="n">
-        <v>1106.82</v>
+        <v>908.85</v>
       </c>
       <c r="D80" t="n">
         <v>0.275</v>
@@ -2520,13 +2520,13 @@
         <v>896</v>
       </c>
       <c r="F80" t="n">
-        <v>1329.6245</v>
+        <v>1384.06625</v>
       </c>
       <c r="G80" t="n">
-        <v>2436.444500000001</v>
+        <v>2292.91625</v>
       </c>
       <c r="H80" t="n">
-        <v>6763.555499999999</v>
+        <v>6907.08375</v>
       </c>
     </row>
     <row r="81">
@@ -2537,7 +2537,7 @@
         <v>9300</v>
       </c>
       <c r="C81" t="n">
-        <v>1120.82</v>
+        <v>908.85</v>
       </c>
       <c r="D81" t="n">
         <v>0.275</v>
@@ -2546,13 +2546,13 @@
         <v>896</v>
       </c>
       <c r="F81" t="n">
-        <v>1353.2745</v>
+        <v>1411.56625</v>
       </c>
       <c r="G81" t="n">
-        <v>2474.0945</v>
+        <v>2320.41625</v>
       </c>
       <c r="H81" t="n">
-        <v>6825.9055</v>
+        <v>6979.58375</v>
       </c>
     </row>
     <row r="82">
@@ -2563,7 +2563,7 @@
         <v>9400</v>
       </c>
       <c r="C82" t="n">
-        <v>1134.82</v>
+        <v>908.85</v>
       </c>
       <c r="D82" t="n">
         <v>0.275</v>
@@ -2572,13 +2572,13 @@
         <v>896</v>
       </c>
       <c r="F82" t="n">
-        <v>1376.9245</v>
+        <v>1439.06625</v>
       </c>
       <c r="G82" t="n">
-        <v>2511.7445</v>
+        <v>2347.91625</v>
       </c>
       <c r="H82" t="n">
-        <v>6888.2555</v>
+        <v>7052.08375</v>
       </c>
     </row>
     <row r="83">
@@ -2589,7 +2589,7 @@
         <v>9500</v>
       </c>
       <c r="C83" t="n">
-        <v>1148.82</v>
+        <v>908.85</v>
       </c>
       <c r="D83" t="n">
         <v>0.275</v>
@@ -2598,13 +2598,13 @@
         <v>896</v>
       </c>
       <c r="F83" t="n">
-        <v>1400.5745</v>
+        <v>1466.56625</v>
       </c>
       <c r="G83" t="n">
-        <v>2549.3945</v>
+        <v>2375.41625</v>
       </c>
       <c r="H83" t="n">
-        <v>6950.6055</v>
+        <v>7124.58375</v>
       </c>
     </row>
     <row r="84">
@@ -2615,7 +2615,7 @@
         <v>9600</v>
       </c>
       <c r="C84" t="n">
-        <v>1162.82</v>
+        <v>908.85</v>
       </c>
       <c r="D84" t="n">
         <v>0.275</v>
@@ -2624,13 +2624,13 @@
         <v>896</v>
       </c>
       <c r="F84" t="n">
-        <v>1424.2245</v>
+        <v>1494.06625</v>
       </c>
       <c r="G84" t="n">
-        <v>2587.0445</v>
+        <v>2402.91625</v>
       </c>
       <c r="H84" t="n">
-        <v>7012.9555</v>
+        <v>7197.08375</v>
       </c>
     </row>
     <row r="85">
@@ -2641,7 +2641,7 @@
         <v>9700</v>
       </c>
       <c r="C85" t="n">
-        <v>1176.82</v>
+        <v>908.85</v>
       </c>
       <c r="D85" t="n">
         <v>0.275</v>
@@ -2650,13 +2650,13 @@
         <v>896</v>
       </c>
       <c r="F85" t="n">
-        <v>1447.8745</v>
+        <v>1521.56625</v>
       </c>
       <c r="G85" t="n">
-        <v>2624.694500000001</v>
+        <v>2430.41625</v>
       </c>
       <c r="H85" t="n">
-        <v>7075.305499999999</v>
+        <v>7269.58375</v>
       </c>
     </row>
     <row r="86">
@@ -2667,7 +2667,7 @@
         <v>9800</v>
       </c>
       <c r="C86" t="n">
-        <v>1190.82</v>
+        <v>908.85</v>
       </c>
       <c r="D86" t="n">
         <v>0.275</v>
@@ -2676,13 +2676,13 @@
         <v>896</v>
       </c>
       <c r="F86" t="n">
-        <v>1471.5245</v>
+        <v>1549.06625</v>
       </c>
       <c r="G86" t="n">
-        <v>2662.3445</v>
+        <v>2457.91625</v>
       </c>
       <c r="H86" t="n">
-        <v>7137.6555</v>
+        <v>7342.08375</v>
       </c>
     </row>
     <row r="87">
@@ -2693,7 +2693,7 @@
         <v>9900</v>
       </c>
       <c r="C87" t="n">
-        <v>1204.82</v>
+        <v>908.85</v>
       </c>
       <c r="D87" t="n">
         <v>0.275</v>
@@ -2702,13 +2702,13 @@
         <v>896</v>
       </c>
       <c r="F87" t="n">
-        <v>1495.1745</v>
+        <v>1576.56625</v>
       </c>
       <c r="G87" t="n">
-        <v>2699.9945</v>
+        <v>2485.41625</v>
       </c>
       <c r="H87" t="n">
-        <v>7200.0055</v>
+        <v>7414.58375</v>
       </c>
     </row>
     <row r="88">
@@ -2719,7 +2719,7 @@
         <v>10000</v>
       </c>
       <c r="C88" t="n">
-        <v>1218.82</v>
+        <v>908.85</v>
       </c>
       <c r="D88" t="n">
         <v>0.275</v>
@@ -2728,13 +2728,13 @@
         <v>896</v>
       </c>
       <c r="F88" t="n">
-        <v>1518.8245</v>
+        <v>1604.06625</v>
       </c>
       <c r="G88" t="n">
-        <v>2737.6445</v>
+        <v>2512.91625</v>
       </c>
       <c r="H88" t="n">
-        <v>7262.3555</v>
+        <v>7487.08375</v>
       </c>
     </row>
     <row r="89">
@@ -2745,7 +2745,7 @@
         <v>10100</v>
       </c>
       <c r="C89" t="n">
-        <v>1232.82</v>
+        <v>908.85</v>
       </c>
       <c r="D89" t="n">
         <v>0.275</v>
@@ -2754,13 +2754,13 @@
         <v>896</v>
       </c>
       <c r="F89" t="n">
-        <v>1542.4745</v>
+        <v>1631.56625</v>
       </c>
       <c r="G89" t="n">
-        <v>2775.2945</v>
+        <v>2540.41625</v>
       </c>
       <c r="H89" t="n">
-        <v>7324.7055</v>
+        <v>7559.58375</v>
       </c>
     </row>
     <row r="90">
@@ -2771,7 +2771,7 @@
         <v>10200</v>
       </c>
       <c r="C90" t="n">
-        <v>1246.82</v>
+        <v>908.85</v>
       </c>
       <c r="D90" t="n">
         <v>0.275</v>
@@ -2780,13 +2780,13 @@
         <v>896</v>
       </c>
       <c r="F90" t="n">
-        <v>1566.1245</v>
+        <v>1659.06625</v>
       </c>
       <c r="G90" t="n">
-        <v>2812.944500000001</v>
+        <v>2567.91625</v>
       </c>
       <c r="H90" t="n">
-        <v>7387.055499999999</v>
+        <v>7632.08375</v>
       </c>
     </row>
     <row r="91">
@@ -2797,7 +2797,7 @@
         <v>10300</v>
       </c>
       <c r="C91" t="n">
-        <v>1260.82</v>
+        <v>908.85</v>
       </c>
       <c r="D91" t="n">
         <v>0.275</v>
@@ -2806,13 +2806,13 @@
         <v>896</v>
       </c>
       <c r="F91" t="n">
-        <v>1589.7745</v>
+        <v>1686.56625</v>
       </c>
       <c r="G91" t="n">
-        <v>2850.5945</v>
+        <v>2595.41625</v>
       </c>
       <c r="H91" t="n">
-        <v>7449.4055</v>
+        <v>7704.58375</v>
       </c>
     </row>
     <row r="92">
@@ -2823,7 +2823,7 @@
         <v>10400</v>
       </c>
       <c r="C92" t="n">
-        <v>1274.82</v>
+        <v>908.85</v>
       </c>
       <c r="D92" t="n">
         <v>0.275</v>
@@ -2832,13 +2832,13 @@
         <v>896</v>
       </c>
       <c r="F92" t="n">
-        <v>1613.4245</v>
+        <v>1714.06625</v>
       </c>
       <c r="G92" t="n">
-        <v>2888.2445</v>
+        <v>2622.91625</v>
       </c>
       <c r="H92" t="n">
-        <v>7511.7555</v>
+        <v>7777.08375</v>
       </c>
     </row>
     <row r="93">
@@ -2849,7 +2849,7 @@
         <v>10500</v>
       </c>
       <c r="C93" t="n">
-        <v>1288.82</v>
+        <v>908.85</v>
       </c>
       <c r="D93" t="n">
         <v>0.275</v>
@@ -2858,13 +2858,13 @@
         <v>896</v>
       </c>
       <c r="F93" t="n">
-        <v>1637.0745</v>
+        <v>1741.56625</v>
       </c>
       <c r="G93" t="n">
-        <v>2925.8945</v>
+        <v>2650.41625</v>
       </c>
       <c r="H93" t="n">
-        <v>7574.1055</v>
+        <v>7849.58375</v>
       </c>
     </row>
     <row r="94">
@@ -2875,7 +2875,7 @@
         <v>10600</v>
       </c>
       <c r="C94" t="n">
-        <v>1302.82</v>
+        <v>908.85</v>
       </c>
       <c r="D94" t="n">
         <v>0.275</v>
@@ -2884,13 +2884,13 @@
         <v>896</v>
       </c>
       <c r="F94" t="n">
-        <v>1660.7245</v>
+        <v>1769.06625</v>
       </c>
       <c r="G94" t="n">
-        <v>2963.5445</v>
+        <v>2677.91625</v>
       </c>
       <c r="H94" t="n">
-        <v>7636.4555</v>
+        <v>7922.08375</v>
       </c>
     </row>
     <row r="95">
@@ -2901,7 +2901,7 @@
         <v>10700</v>
       </c>
       <c r="C95" t="n">
-        <v>1316.82</v>
+        <v>908.85</v>
       </c>
       <c r="D95" t="n">
         <v>0.275</v>
@@ -2910,13 +2910,13 @@
         <v>896</v>
       </c>
       <c r="F95" t="n">
-        <v>1684.3745</v>
+        <v>1796.56625</v>
       </c>
       <c r="G95" t="n">
-        <v>3001.194500000001</v>
+        <v>2705.41625</v>
       </c>
       <c r="H95" t="n">
-        <v>7698.805499999999</v>
+        <v>7994.58375</v>
       </c>
     </row>
     <row r="96">
@@ -2927,7 +2927,7 @@
         <v>10800</v>
       </c>
       <c r="C96" t="n">
-        <v>1330.82</v>
+        <v>908.85</v>
       </c>
       <c r="D96" t="n">
         <v>0.275</v>
@@ -2936,13 +2936,13 @@
         <v>896</v>
       </c>
       <c r="F96" t="n">
-        <v>1708.0245</v>
+        <v>1824.06625</v>
       </c>
       <c r="G96" t="n">
-        <v>3038.8445</v>
+        <v>2732.91625</v>
       </c>
       <c r="H96" t="n">
-        <v>7761.1555</v>
+        <v>8067.08375</v>
       </c>
     </row>
     <row r="97">
@@ -2953,7 +2953,7 @@
         <v>10900</v>
       </c>
       <c r="C97" t="n">
-        <v>1344.82</v>
+        <v>908.85</v>
       </c>
       <c r="D97" t="n">
         <v>0.275</v>
@@ -2962,13 +2962,13 @@
         <v>896</v>
       </c>
       <c r="F97" t="n">
-        <v>1731.6745</v>
+        <v>1851.56625</v>
       </c>
       <c r="G97" t="n">
-        <v>3076.4945</v>
+        <v>2760.41625</v>
       </c>
       <c r="H97" t="n">
-        <v>7823.5055</v>
+        <v>8139.58375</v>
       </c>
     </row>
     <row r="98">
@@ -2979,7 +2979,7 @@
         <v>11000</v>
       </c>
       <c r="C98" t="n">
-        <v>1358.82</v>
+        <v>908.85</v>
       </c>
       <c r="D98" t="n">
         <v>0.275</v>
@@ -2988,13 +2988,13 @@
         <v>896</v>
       </c>
       <c r="F98" t="n">
-        <v>1755.3245</v>
+        <v>1879.06625</v>
       </c>
       <c r="G98" t="n">
-        <v>3114.1445</v>
+        <v>2787.91625</v>
       </c>
       <c r="H98" t="n">
-        <v>7885.8555</v>
+        <v>8212.08375</v>
       </c>
     </row>
     <row r="99">
@@ -3005,7 +3005,7 @@
         <v>11100</v>
       </c>
       <c r="C99" t="n">
-        <v>1372.82</v>
+        <v>908.85</v>
       </c>
       <c r="D99" t="n">
         <v>0.275</v>
@@ -3014,13 +3014,13 @@
         <v>896</v>
       </c>
       <c r="F99" t="n">
-        <v>1778.9745</v>
+        <v>1906.56625</v>
       </c>
       <c r="G99" t="n">
-        <v>3151.7945</v>
+        <v>2815.41625</v>
       </c>
       <c r="H99" t="n">
-        <v>7948.2055</v>
+        <v>8284.58375</v>
       </c>
     </row>
     <row r="100">
@@ -3031,7 +3031,7 @@
         <v>11200</v>
       </c>
       <c r="C100" t="n">
-        <v>1386.82</v>
+        <v>908.85</v>
       </c>
       <c r="D100" t="n">
         <v>0.275</v>
@@ -3040,13 +3040,13 @@
         <v>896</v>
       </c>
       <c r="F100" t="n">
-        <v>1802.6245</v>
+        <v>1934.06625</v>
       </c>
       <c r="G100" t="n">
-        <v>3189.444500000001</v>
+        <v>2842.91625</v>
       </c>
       <c r="H100" t="n">
-        <v>8010.555499999999</v>
+        <v>8357.08375</v>
       </c>
     </row>
     <row r="101">
@@ -3057,7 +3057,7 @@
         <v>11300</v>
       </c>
       <c r="C101" t="n">
-        <v>1400.82</v>
+        <v>908.85</v>
       </c>
       <c r="D101" t="n">
         <v>0.275</v>
@@ -3066,13 +3066,13 @@
         <v>896</v>
       </c>
       <c r="F101" t="n">
-        <v>1826.2745</v>
+        <v>1961.56625</v>
       </c>
       <c r="G101" t="n">
-        <v>3227.0945</v>
+        <v>2870.41625</v>
       </c>
       <c r="H101" t="n">
-        <v>8072.9055</v>
+        <v>8429.58375</v>
       </c>
     </row>
     <row r="102">
@@ -3083,7 +3083,7 @@
         <v>11400</v>
       </c>
       <c r="C102" t="n">
-        <v>1414.82</v>
+        <v>908.85</v>
       </c>
       <c r="D102" t="n">
         <v>0.275</v>
@@ -3092,13 +3092,13 @@
         <v>896</v>
       </c>
       <c r="F102" t="n">
-        <v>1849.9245</v>
+        <v>1989.06625</v>
       </c>
       <c r="G102" t="n">
-        <v>3264.7445</v>
+        <v>2897.91625</v>
       </c>
       <c r="H102" t="n">
-        <v>8135.2555</v>
+        <v>8502.08375</v>
       </c>
     </row>
     <row r="103">
@@ -3109,7 +3109,7 @@
         <v>11500</v>
       </c>
       <c r="C103" t="n">
-        <v>1428.82</v>
+        <v>908.85</v>
       </c>
       <c r="D103" t="n">
         <v>0.275</v>
@@ -3118,13 +3118,13 @@
         <v>896</v>
       </c>
       <c r="F103" t="n">
-        <v>1873.5745</v>
+        <v>2016.56625</v>
       </c>
       <c r="G103" t="n">
-        <v>3302.3945</v>
+        <v>2925.41625</v>
       </c>
       <c r="H103" t="n">
-        <v>8197.6055</v>
+        <v>8574.58375</v>
       </c>
     </row>
     <row r="104">
@@ -3135,7 +3135,7 @@
         <v>11600</v>
       </c>
       <c r="C104" t="n">
-        <v>1442.82</v>
+        <v>908.85</v>
       </c>
       <c r="D104" t="n">
         <v>0.275</v>
@@ -3144,13 +3144,13 @@
         <v>896</v>
       </c>
       <c r="F104" t="n">
-        <v>1897.2245</v>
+        <v>2044.06625</v>
       </c>
       <c r="G104" t="n">
-        <v>3340.0445</v>
+        <v>2952.91625</v>
       </c>
       <c r="H104" t="n">
-        <v>8259.9555</v>
+        <v>8647.08375</v>
       </c>
     </row>
     <row r="105">
@@ -3161,7 +3161,7 @@
         <v>11700</v>
       </c>
       <c r="C105" t="n">
-        <v>1456.82</v>
+        <v>908.85</v>
       </c>
       <c r="D105" t="n">
         <v>0.275</v>
@@ -3170,13 +3170,13 @@
         <v>896</v>
       </c>
       <c r="F105" t="n">
-        <v>1920.8745</v>
+        <v>2071.56625</v>
       </c>
       <c r="G105" t="n">
-        <v>3377.694500000001</v>
+        <v>2980.41625</v>
       </c>
       <c r="H105" t="n">
-        <v>8322.305499999999</v>
+        <v>8719.58375</v>
       </c>
     </row>
     <row r="106">
@@ -3187,7 +3187,7 @@
         <v>11800</v>
       </c>
       <c r="C106" t="n">
-        <v>1470.82</v>
+        <v>908.85</v>
       </c>
       <c r="D106" t="n">
         <v>0.275</v>
@@ -3196,13 +3196,13 @@
         <v>896</v>
       </c>
       <c r="F106" t="n">
-        <v>1944.5245</v>
+        <v>2099.06625</v>
       </c>
       <c r="G106" t="n">
-        <v>3415.3445</v>
+        <v>3007.91625</v>
       </c>
       <c r="H106" t="n">
-        <v>8384.655500000001</v>
+        <v>8792.08375</v>
       </c>
     </row>
     <row r="107">
@@ -3213,7 +3213,7 @@
         <v>11900</v>
       </c>
       <c r="C107" t="n">
-        <v>1484.82</v>
+        <v>908.85</v>
       </c>
       <c r="D107" t="n">
         <v>0.275</v>
@@ -3222,13 +3222,13 @@
         <v>896</v>
       </c>
       <c r="F107" t="n">
-        <v>1968.174500000001</v>
+        <v>2126.56625</v>
       </c>
       <c r="G107" t="n">
-        <v>3452.994500000001</v>
+        <v>3035.41625</v>
       </c>
       <c r="H107" t="n">
-        <v>8447.005499999999</v>
+        <v>8864.58375</v>
       </c>
     </row>
     <row r="108">
@@ -3239,7 +3239,7 @@
         <v>12000</v>
       </c>
       <c r="C108" t="n">
-        <v>1498.82</v>
+        <v>908.85</v>
       </c>
       <c r="D108" t="n">
         <v>0.275</v>
@@ -3248,13 +3248,13 @@
         <v>896</v>
       </c>
       <c r="F108" t="n">
-        <v>1991.8245</v>
+        <v>2154.06625</v>
       </c>
       <c r="G108" t="n">
-        <v>3490.6445</v>
+        <v>3062.91625</v>
       </c>
       <c r="H108" t="n">
-        <v>8509.3555</v>
+        <v>8937.08375</v>
       </c>
     </row>
     <row r="109">
@@ -3265,7 +3265,7 @@
         <v>12100</v>
       </c>
       <c r="C109" t="n">
-        <v>1512.82</v>
+        <v>908.85</v>
       </c>
       <c r="D109" t="n">
         <v>0.275</v>
@@ -3274,13 +3274,13 @@
         <v>896</v>
       </c>
       <c r="F109" t="n">
-        <v>2015.4745</v>
+        <v>2181.56625</v>
       </c>
       <c r="G109" t="n">
-        <v>3528.2945</v>
+        <v>3090.41625</v>
       </c>
       <c r="H109" t="n">
-        <v>8571.7055</v>
+        <v>9009.58375</v>
       </c>
     </row>
     <row r="110">
@@ -3291,7 +3291,7 @@
         <v>12200</v>
       </c>
       <c r="C110" t="n">
-        <v>1526.82</v>
+        <v>908.85</v>
       </c>
       <c r="D110" t="n">
         <v>0.275</v>
@@ -3300,13 +3300,13 @@
         <v>896</v>
       </c>
       <c r="F110" t="n">
-        <v>2039.1245</v>
+        <v>2209.06625</v>
       </c>
       <c r="G110" t="n">
-        <v>3565.944500000001</v>
+        <v>3117.91625</v>
       </c>
       <c r="H110" t="n">
-        <v>8634.055499999999</v>
+        <v>9082.08375</v>
       </c>
     </row>
     <row r="111">
@@ -3317,7 +3317,7 @@
         <v>12300</v>
       </c>
       <c r="C111" t="n">
-        <v>1540.82</v>
+        <v>908.85</v>
       </c>
       <c r="D111" t="n">
         <v>0.275</v>
@@ -3326,13 +3326,13 @@
         <v>896</v>
       </c>
       <c r="F111" t="n">
-        <v>2062.7745</v>
+        <v>2236.56625</v>
       </c>
       <c r="G111" t="n">
-        <v>3603.5945</v>
+        <v>3145.41625</v>
       </c>
       <c r="H111" t="n">
-        <v>8696.405500000001</v>
+        <v>9154.58375</v>
       </c>
     </row>
     <row r="112">
@@ -3343,7 +3343,7 @@
         <v>12400</v>
       </c>
       <c r="C112" t="n">
-        <v>1554.82</v>
+        <v>908.85</v>
       </c>
       <c r="D112" t="n">
         <v>0.275</v>
@@ -3352,13 +3352,13 @@
         <v>896</v>
       </c>
       <c r="F112" t="n">
-        <v>2086.424500000001</v>
+        <v>2264.06625</v>
       </c>
       <c r="G112" t="n">
-        <v>3641.244500000001</v>
+        <v>3172.91625</v>
       </c>
       <c r="H112" t="n">
-        <v>8758.755499999999</v>
+        <v>9227.08375</v>
       </c>
     </row>
     <row r="113">
@@ -3369,7 +3369,7 @@
         <v>12500</v>
       </c>
       <c r="C113" t="n">
-        <v>1568.82</v>
+        <v>908.85</v>
       </c>
       <c r="D113" t="n">
         <v>0.275</v>
@@ -3378,13 +3378,13 @@
         <v>896</v>
       </c>
       <c r="F113" t="n">
-        <v>2110.0745</v>
+        <v>2291.56625</v>
       </c>
       <c r="G113" t="n">
-        <v>3678.8945</v>
+        <v>3200.41625</v>
       </c>
       <c r="H113" t="n">
-        <v>8821.1055</v>
+        <v>9299.58375</v>
       </c>
     </row>
     <row r="114">
@@ -3395,7 +3395,7 @@
         <v>12600</v>
       </c>
       <c r="C114" t="n">
-        <v>1582.82</v>
+        <v>908.85</v>
       </c>
       <c r="D114" t="n">
         <v>0.275</v>
@@ -3404,13 +3404,13 @@
         <v>896</v>
       </c>
       <c r="F114" t="n">
-        <v>2133.7245</v>
+        <v>2319.06625</v>
       </c>
       <c r="G114" t="n">
-        <v>3716.5445</v>
+        <v>3227.91625</v>
       </c>
       <c r="H114" t="n">
-        <v>8883.4555</v>
+        <v>9372.08375</v>
       </c>
     </row>
     <row r="115">
@@ -3421,7 +3421,7 @@
         <v>12700</v>
       </c>
       <c r="C115" t="n">
-        <v>1596.82</v>
+        <v>908.85</v>
       </c>
       <c r="D115" t="n">
         <v>0.275</v>
@@ -3430,13 +3430,13 @@
         <v>896</v>
       </c>
       <c r="F115" t="n">
-        <v>2157.3745</v>
+        <v>2346.56625</v>
       </c>
       <c r="G115" t="n">
-        <v>3754.194500000001</v>
+        <v>3255.41625</v>
       </c>
       <c r="H115" t="n">
-        <v>8945.805499999999</v>
+        <v>9444.58375</v>
       </c>
     </row>
     <row r="116">
@@ -3447,7 +3447,7 @@
         <v>12800</v>
       </c>
       <c r="C116" t="n">
-        <v>1610.82</v>
+        <v>908.85</v>
       </c>
       <c r="D116" t="n">
         <v>0.275</v>
@@ -3456,13 +3456,13 @@
         <v>896</v>
       </c>
       <c r="F116" t="n">
-        <v>2181.0245</v>
+        <v>2374.06625</v>
       </c>
       <c r="G116" t="n">
-        <v>3791.8445</v>
+        <v>3282.91625</v>
       </c>
       <c r="H116" t="n">
-        <v>9008.155500000001</v>
+        <v>9517.08375</v>
       </c>
     </row>
     <row r="117">
@@ -3473,7 +3473,7 @@
         <v>12900</v>
       </c>
       <c r="C117" t="n">
-        <v>1624.82</v>
+        <v>908.85</v>
       </c>
       <c r="D117" t="n">
         <v>0.275</v>
@@ -3482,13 +3482,13 @@
         <v>896</v>
       </c>
       <c r="F117" t="n">
-        <v>2204.674500000001</v>
+        <v>2401.56625</v>
       </c>
       <c r="G117" t="n">
-        <v>3829.494500000001</v>
+        <v>3310.41625</v>
       </c>
       <c r="H117" t="n">
-        <v>9070.505499999999</v>
+        <v>9589.58375</v>
       </c>
     </row>
     <row r="118">
@@ -3499,7 +3499,7 @@
         <v>13000</v>
       </c>
       <c r="C118" t="n">
-        <v>1638.82</v>
+        <v>908.85</v>
       </c>
       <c r="D118" t="n">
         <v>0.275</v>
@@ -3508,13 +3508,13 @@
         <v>896</v>
       </c>
       <c r="F118" t="n">
-        <v>2228.3245</v>
+        <v>2429.06625</v>
       </c>
       <c r="G118" t="n">
-        <v>3867.1445</v>
+        <v>3337.91625</v>
       </c>
       <c r="H118" t="n">
-        <v>9132.8555</v>
+        <v>9662.08375</v>
       </c>
     </row>
     <row r="119">
@@ -3525,7 +3525,7 @@
         <v>13100</v>
       </c>
       <c r="C119" t="n">
-        <v>1652.82</v>
+        <v>908.85</v>
       </c>
       <c r="D119" t="n">
         <v>0.275</v>
@@ -3534,13 +3534,13 @@
         <v>896</v>
       </c>
       <c r="F119" t="n">
-        <v>2251.9745</v>
+        <v>2456.56625</v>
       </c>
       <c r="G119" t="n">
-        <v>3904.7945</v>
+        <v>3365.41625</v>
       </c>
       <c r="H119" t="n">
-        <v>9195.2055</v>
+        <v>9734.58375</v>
       </c>
     </row>
     <row r="120">
@@ -3551,7 +3551,7 @@
         <v>13200</v>
       </c>
       <c r="C120" t="n">
-        <v>1666.82</v>
+        <v>908.85</v>
       </c>
       <c r="D120" t="n">
         <v>0.275</v>
@@ -3560,13 +3560,13 @@
         <v>896</v>
       </c>
       <c r="F120" t="n">
-        <v>2275.6245</v>
+        <v>2484.06625</v>
       </c>
       <c r="G120" t="n">
-        <v>3942.444500000001</v>
+        <v>3392.91625</v>
       </c>
       <c r="H120" t="n">
-        <v>9257.555499999999</v>
+        <v>9807.08375</v>
       </c>
     </row>
     <row r="121">
@@ -3577,7 +3577,7 @@
         <v>13300</v>
       </c>
       <c r="C121" t="n">
-        <v>1680.82</v>
+        <v>908.85</v>
       </c>
       <c r="D121" t="n">
         <v>0.275</v>
@@ -3586,13 +3586,13 @@
         <v>896</v>
       </c>
       <c r="F121" t="n">
-        <v>2299.2745</v>
+        <v>2511.56625</v>
       </c>
       <c r="G121" t="n">
-        <v>3980.0945</v>
+        <v>3420.41625</v>
       </c>
       <c r="H121" t="n">
-        <v>9319.905500000001</v>
+        <v>9879.58375</v>
       </c>
     </row>
     <row r="122">
@@ -3603,7 +3603,7 @@
         <v>13400</v>
       </c>
       <c r="C122" t="n">
-        <v>1694.82</v>
+        <v>908.85</v>
       </c>
       <c r="D122" t="n">
         <v>0.275</v>
@@ -3612,13 +3612,13 @@
         <v>896</v>
       </c>
       <c r="F122" t="n">
-        <v>2322.924500000001</v>
+        <v>2539.06625</v>
       </c>
       <c r="G122" t="n">
-        <v>4017.744500000001</v>
+        <v>3447.91625</v>
       </c>
       <c r="H122" t="n">
-        <v>9382.255499999999</v>
+        <v>9952.08375</v>
       </c>
     </row>
     <row r="123">
@@ -3629,7 +3629,7 @@
         <v>13500</v>
       </c>
       <c r="C123" t="n">
-        <v>1708.82</v>
+        <v>908.85</v>
       </c>
       <c r="D123" t="n">
         <v>0.275</v>
@@ -3638,13 +3638,13 @@
         <v>896</v>
       </c>
       <c r="F123" t="n">
-        <v>2346.5745</v>
+        <v>2566.56625</v>
       </c>
       <c r="G123" t="n">
-        <v>4055.3945</v>
+        <v>3475.41625</v>
       </c>
       <c r="H123" t="n">
-        <v>9444.6055</v>
+        <v>10024.58375</v>
       </c>
     </row>
     <row r="124">
@@ -3655,7 +3655,7 @@
         <v>13600</v>
       </c>
       <c r="C124" t="n">
-        <v>1722.82</v>
+        <v>908.85</v>
       </c>
       <c r="D124" t="n">
         <v>0.275</v>
@@ -3664,13 +3664,13 @@
         <v>896</v>
       </c>
       <c r="F124" t="n">
-        <v>2370.2245</v>
+        <v>2594.06625</v>
       </c>
       <c r="G124" t="n">
-        <v>4093.0445</v>
+        <v>3502.91625</v>
       </c>
       <c r="H124" t="n">
-        <v>9506.9555</v>
+        <v>10097.08375</v>
       </c>
     </row>
     <row r="125">
@@ -3681,7 +3681,7 @@
         <v>13700</v>
       </c>
       <c r="C125" t="n">
-        <v>1736.82</v>
+        <v>908.85</v>
       </c>
       <c r="D125" t="n">
         <v>0.275</v>
@@ -3690,13 +3690,13 @@
         <v>896</v>
       </c>
       <c r="F125" t="n">
-        <v>2393.8745</v>
+        <v>2621.56625</v>
       </c>
       <c r="G125" t="n">
-        <v>4130.694500000001</v>
+        <v>3530.41625</v>
       </c>
       <c r="H125" t="n">
-        <v>9569.305499999999</v>
+        <v>10169.58375</v>
       </c>
     </row>
     <row r="126">
@@ -3707,7 +3707,7 @@
         <v>13800</v>
       </c>
       <c r="C126" t="n">
-        <v>1750.82</v>
+        <v>908.85</v>
       </c>
       <c r="D126" t="n">
         <v>0.275</v>
@@ -3716,13 +3716,13 @@
         <v>896</v>
       </c>
       <c r="F126" t="n">
-        <v>2417.5245</v>
+        <v>2649.06625</v>
       </c>
       <c r="G126" t="n">
-        <v>4168.3445</v>
+        <v>3557.91625</v>
       </c>
       <c r="H126" t="n">
-        <v>9631.655500000001</v>
+        <v>10242.08375</v>
       </c>
     </row>
     <row r="127">
@@ -3733,7 +3733,7 @@
         <v>13900</v>
       </c>
       <c r="C127" t="n">
-        <v>1764.82</v>
+        <v>908.85</v>
       </c>
       <c r="D127" t="n">
         <v>0.275</v>
@@ -3742,13 +3742,13 @@
         <v>896</v>
       </c>
       <c r="F127" t="n">
-        <v>2441.174500000001</v>
+        <v>2676.56625</v>
       </c>
       <c r="G127" t="n">
-        <v>4205.994500000001</v>
+        <v>3585.41625</v>
       </c>
       <c r="H127" t="n">
-        <v>9694.005499999999</v>
+        <v>10314.58375</v>
       </c>
     </row>
     <row r="128">
@@ -3759,7 +3759,7 @@
         <v>14000</v>
       </c>
       <c r="C128" t="n">
-        <v>1778.82</v>
+        <v>908.85</v>
       </c>
       <c r="D128" t="n">
         <v>0.275</v>
@@ -3768,13 +3768,13 @@
         <v>896</v>
       </c>
       <c r="F128" t="n">
-        <v>2464.8245</v>
+        <v>2704.06625</v>
       </c>
       <c r="G128" t="n">
-        <v>4243.6445</v>
+        <v>3612.91625</v>
       </c>
       <c r="H128" t="n">
-        <v>9756.3555</v>
+        <v>10387.08375</v>
       </c>
     </row>
     <row r="129">
@@ -3785,7 +3785,7 @@
         <v>14100</v>
       </c>
       <c r="C129" t="n">
-        <v>1792.82</v>
+        <v>908.85</v>
       </c>
       <c r="D129" t="n">
         <v>0.275</v>
@@ -3794,13 +3794,13 @@
         <v>896</v>
       </c>
       <c r="F129" t="n">
-        <v>2488.4745</v>
+        <v>2731.56625</v>
       </c>
       <c r="G129" t="n">
-        <v>4281.2945</v>
+        <v>3640.41625</v>
       </c>
       <c r="H129" t="n">
-        <v>9818.7055</v>
+        <v>10459.58375</v>
       </c>
     </row>
     <row r="130">
@@ -3811,7 +3811,7 @@
         <v>14200</v>
       </c>
       <c r="C130" t="n">
-        <v>1806.82</v>
+        <v>908.85</v>
       </c>
       <c r="D130" t="n">
         <v>0.275</v>
@@ -3820,13 +3820,13 @@
         <v>896</v>
       </c>
       <c r="F130" t="n">
-        <v>2512.1245</v>
+        <v>2759.06625</v>
       </c>
       <c r="G130" t="n">
-        <v>4318.944500000001</v>
+        <v>3667.91625</v>
       </c>
       <c r="H130" t="n">
-        <v>9881.055499999999</v>
+        <v>10532.08375</v>
       </c>
     </row>
     <row r="131">
@@ -3837,7 +3837,7 @@
         <v>14300</v>
       </c>
       <c r="C131" t="n">
-        <v>1820.82</v>
+        <v>908.85</v>
       </c>
       <c r="D131" t="n">
         <v>0.275</v>
@@ -3846,13 +3846,13 @@
         <v>896</v>
       </c>
       <c r="F131" t="n">
-        <v>2535.7745</v>
+        <v>2786.56625</v>
       </c>
       <c r="G131" t="n">
-        <v>4356.5945</v>
+        <v>3695.41625</v>
       </c>
       <c r="H131" t="n">
-        <v>9943.405500000001</v>
+        <v>10604.58375</v>
       </c>
     </row>
     <row r="132">
@@ -3863,7 +3863,7 @@
         <v>14400</v>
       </c>
       <c r="C132" t="n">
-        <v>1834.82</v>
+        <v>908.85</v>
       </c>
       <c r="D132" t="n">
         <v>0.275</v>
@@ -3872,13 +3872,13 @@
         <v>896</v>
       </c>
       <c r="F132" t="n">
-        <v>2559.424500000001</v>
+        <v>2814.06625</v>
       </c>
       <c r="G132" t="n">
-        <v>4394.244500000001</v>
+        <v>3722.91625</v>
       </c>
       <c r="H132" t="n">
-        <v>10005.7555</v>
+        <v>10677.08375</v>
       </c>
     </row>
     <row r="133">
@@ -3889,7 +3889,7 @@
         <v>14500</v>
       </c>
       <c r="C133" t="n">
-        <v>1848.82</v>
+        <v>908.85</v>
       </c>
       <c r="D133" t="n">
         <v>0.275</v>
@@ -3898,13 +3898,13 @@
         <v>896</v>
       </c>
       <c r="F133" t="n">
-        <v>2583.0745</v>
+        <v>2841.56625</v>
       </c>
       <c r="G133" t="n">
-        <v>4431.8945</v>
+        <v>3750.41625</v>
       </c>
       <c r="H133" t="n">
-        <v>10068.1055</v>
+        <v>10749.58375</v>
       </c>
     </row>
     <row r="134">
@@ -3915,7 +3915,7 @@
         <v>14600</v>
       </c>
       <c r="C134" t="n">
-        <v>1862.82</v>
+        <v>908.85</v>
       </c>
       <c r="D134" t="n">
         <v>0.275</v>
@@ -3924,13 +3924,13 @@
         <v>896</v>
       </c>
       <c r="F134" t="n">
-        <v>2606.7245</v>
+        <v>2869.06625</v>
       </c>
       <c r="G134" t="n">
-        <v>4469.5445</v>
+        <v>3777.91625</v>
       </c>
       <c r="H134" t="n">
-        <v>10130.4555</v>
+        <v>10822.08375</v>
       </c>
     </row>
     <row r="135">
@@ -3941,7 +3941,7 @@
         <v>14700</v>
       </c>
       <c r="C135" t="n">
-        <v>1876.82</v>
+        <v>908.85</v>
       </c>
       <c r="D135" t="n">
         <v>0.275</v>
@@ -3950,13 +3950,13 @@
         <v>896</v>
       </c>
       <c r="F135" t="n">
-        <v>2630.3745</v>
+        <v>2896.56625</v>
       </c>
       <c r="G135" t="n">
-        <v>4507.194500000001</v>
+        <v>3805.41625</v>
       </c>
       <c r="H135" t="n">
-        <v>10192.8055</v>
+        <v>10894.58375</v>
       </c>
     </row>
     <row r="136">
@@ -3967,7 +3967,7 @@
         <v>14800</v>
       </c>
       <c r="C136" t="n">
-        <v>1890.82</v>
+        <v>908.85</v>
       </c>
       <c r="D136" t="n">
         <v>0.275</v>
@@ -3976,13 +3976,13 @@
         <v>896</v>
       </c>
       <c r="F136" t="n">
-        <v>2654.0245</v>
+        <v>2924.06625</v>
       </c>
       <c r="G136" t="n">
-        <v>4544.8445</v>
+        <v>3832.91625</v>
       </c>
       <c r="H136" t="n">
-        <v>10255.1555</v>
+        <v>10967.08375</v>
       </c>
     </row>
     <row r="137">
@@ -3993,7 +3993,7 @@
         <v>14900</v>
       </c>
       <c r="C137" t="n">
-        <v>1904.82</v>
+        <v>908.85</v>
       </c>
       <c r="D137" t="n">
         <v>0.275</v>
@@ -4002,13 +4002,13 @@
         <v>896</v>
       </c>
       <c r="F137" t="n">
-        <v>2677.674500000001</v>
+        <v>2951.56625</v>
       </c>
       <c r="G137" t="n">
-        <v>4582.494500000001</v>
+        <v>3860.41625</v>
       </c>
       <c r="H137" t="n">
-        <v>10317.5055</v>
+        <v>11039.58375</v>
       </c>
     </row>
     <row r="138">
@@ -4019,7 +4019,7 @@
         <v>15000</v>
       </c>
       <c r="C138" t="n">
-        <v>1918.82</v>
+        <v>908.85</v>
       </c>
       <c r="D138" t="n">
         <v>0.275</v>
@@ -4028,13 +4028,13 @@
         <v>896</v>
       </c>
       <c r="F138" t="n">
-        <v>2701.3245</v>
+        <v>2979.06625</v>
       </c>
       <c r="G138" t="n">
-        <v>4620.1445</v>
+        <v>3887.91625</v>
       </c>
       <c r="H138" t="n">
-        <v>10379.8555</v>
+        <v>11112.08375</v>
       </c>
     </row>
     <row r="139">
@@ -4045,7 +4045,7 @@
         <v>15100</v>
       </c>
       <c r="C139" t="n">
-        <v>1932.82</v>
+        <v>908.85</v>
       </c>
       <c r="D139" t="n">
         <v>0.275</v>
@@ -4054,13 +4054,13 @@
         <v>896</v>
       </c>
       <c r="F139" t="n">
-        <v>2724.9745</v>
+        <v>3006.56625</v>
       </c>
       <c r="G139" t="n">
-        <v>4657.7945</v>
+        <v>3915.41625</v>
       </c>
       <c r="H139" t="n">
-        <v>10442.2055</v>
+        <v>11184.58375</v>
       </c>
     </row>
     <row r="140">
@@ -4071,7 +4071,7 @@
         <v>15200</v>
       </c>
       <c r="C140" t="n">
-        <v>1946.82</v>
+        <v>908.85</v>
       </c>
       <c r="D140" t="n">
         <v>0.275</v>
@@ -4080,13 +4080,13 @@
         <v>896</v>
       </c>
       <c r="F140" t="n">
-        <v>2748.6245</v>
+        <v>3034.06625</v>
       </c>
       <c r="G140" t="n">
-        <v>4695.444500000001</v>
+        <v>3942.91625</v>
       </c>
       <c r="H140" t="n">
-        <v>10504.5555</v>
+        <v>11257.08375</v>
       </c>
     </row>
     <row r="141">
@@ -4097,7 +4097,7 @@
         <v>15300</v>
       </c>
       <c r="C141" t="n">
-        <v>1960.82</v>
+        <v>908.85</v>
       </c>
       <c r="D141" t="n">
         <v>0.275</v>
@@ -4106,13 +4106,13 @@
         <v>896</v>
       </c>
       <c r="F141" t="n">
-        <v>2772.2745</v>
+        <v>3061.56625</v>
       </c>
       <c r="G141" t="n">
-        <v>4733.0945</v>
+        <v>3970.41625</v>
       </c>
       <c r="H141" t="n">
-        <v>10566.9055</v>
+        <v>11329.58375</v>
       </c>
     </row>
     <row r="142">
@@ -4123,7 +4123,7 @@
         <v>15400</v>
       </c>
       <c r="C142" t="n">
-        <v>1974.82</v>
+        <v>908.85</v>
       </c>
       <c r="D142" t="n">
         <v>0.275</v>
@@ -4132,13 +4132,13 @@
         <v>896</v>
       </c>
       <c r="F142" t="n">
-        <v>2795.924500000001</v>
+        <v>3089.06625</v>
       </c>
       <c r="G142" t="n">
-        <v>4770.744500000001</v>
+        <v>3997.91625</v>
       </c>
       <c r="H142" t="n">
-        <v>10629.2555</v>
+        <v>11402.08375</v>
       </c>
     </row>
     <row r="143">
@@ -4149,7 +4149,7 @@
         <v>15500</v>
       </c>
       <c r="C143" t="n">
-        <v>1988.82</v>
+        <v>908.85</v>
       </c>
       <c r="D143" t="n">
         <v>0.275</v>
@@ -4158,13 +4158,13 @@
         <v>896</v>
       </c>
       <c r="F143" t="n">
-        <v>2819.5745</v>
+        <v>3116.56625</v>
       </c>
       <c r="G143" t="n">
-        <v>4808.3945</v>
+        <v>4025.41625</v>
       </c>
       <c r="H143" t="n">
-        <v>10691.6055</v>
+        <v>11474.58375</v>
       </c>
     </row>
     <row r="144">
@@ -4175,7 +4175,7 @@
         <v>15600</v>
       </c>
       <c r="C144" t="n">
-        <v>2002.82</v>
+        <v>908.85</v>
       </c>
       <c r="D144" t="n">
         <v>0.275</v>
@@ -4184,13 +4184,13 @@
         <v>896</v>
       </c>
       <c r="F144" t="n">
-        <v>2843.2245</v>
+        <v>3144.06625</v>
       </c>
       <c r="G144" t="n">
-        <v>4846.0445</v>
+        <v>4052.91625</v>
       </c>
       <c r="H144" t="n">
-        <v>10753.9555</v>
+        <v>11547.08375</v>
       </c>
     </row>
     <row r="145">
@@ -4201,7 +4201,7 @@
         <v>15700</v>
       </c>
       <c r="C145" t="n">
-        <v>2016.82</v>
+        <v>908.85</v>
       </c>
       <c r="D145" t="n">
         <v>0.275</v>
@@ -4210,13 +4210,13 @@
         <v>896</v>
       </c>
       <c r="F145" t="n">
-        <v>2866.8745</v>
+        <v>3171.56625</v>
       </c>
       <c r="G145" t="n">
-        <v>4883.694500000001</v>
+        <v>4080.41625</v>
       </c>
       <c r="H145" t="n">
-        <v>10816.3055</v>
+        <v>11619.58375</v>
       </c>
     </row>
     <row r="146">
@@ -4227,7 +4227,7 @@
         <v>15800</v>
       </c>
       <c r="C146" t="n">
-        <v>2030.82</v>
+        <v>908.85</v>
       </c>
       <c r="D146" t="n">
         <v>0.275</v>
@@ -4236,13 +4236,13 @@
         <v>896</v>
       </c>
       <c r="F146" t="n">
-        <v>2890.5245</v>
+        <v>3199.06625</v>
       </c>
       <c r="G146" t="n">
-        <v>4921.3445</v>
+        <v>4107.91625</v>
       </c>
       <c r="H146" t="n">
-        <v>10878.6555</v>
+        <v>11692.08375</v>
       </c>
     </row>
     <row r="147">
@@ -4253,7 +4253,7 @@
         <v>15900</v>
       </c>
       <c r="C147" t="n">
-        <v>2044.82</v>
+        <v>908.85</v>
       </c>
       <c r="D147" t="n">
         <v>0.275</v>
@@ -4262,13 +4262,13 @@
         <v>896</v>
       </c>
       <c r="F147" t="n">
-        <v>2914.174500000001</v>
+        <v>3226.56625</v>
       </c>
       <c r="G147" t="n">
-        <v>4958.994500000001</v>
+        <v>4135.41625</v>
       </c>
       <c r="H147" t="n">
-        <v>10941.0055</v>
+        <v>11764.58375</v>
       </c>
     </row>
     <row r="148">
@@ -4279,7 +4279,7 @@
         <v>16000</v>
       </c>
       <c r="C148" t="n">
-        <v>2058.82</v>
+        <v>908.85</v>
       </c>
       <c r="D148" t="n">
         <v>0.275</v>
@@ -4288,13 +4288,13 @@
         <v>896</v>
       </c>
       <c r="F148" t="n">
-        <v>2937.8245</v>
+        <v>3254.06625</v>
       </c>
       <c r="G148" t="n">
-        <v>4996.6445</v>
+        <v>4162.91625</v>
       </c>
       <c r="H148" t="n">
-        <v>11003.3555</v>
+        <v>11837.08375</v>
       </c>
     </row>
     <row r="149">
@@ -4305,7 +4305,7 @@
         <v>16100</v>
       </c>
       <c r="C149" t="n">
-        <v>2072.82</v>
+        <v>908.85</v>
       </c>
       <c r="D149" t="n">
         <v>0.275</v>
@@ -4314,13 +4314,13 @@
         <v>896</v>
       </c>
       <c r="F149" t="n">
-        <v>2961.4745</v>
+        <v>3281.56625</v>
       </c>
       <c r="G149" t="n">
-        <v>5034.2945</v>
+        <v>4190.41625</v>
       </c>
       <c r="H149" t="n">
-        <v>11065.7055</v>
+        <v>11909.58375</v>
       </c>
     </row>
     <row r="150">
@@ -4331,7 +4331,7 @@
         <v>16200</v>
       </c>
       <c r="C150" t="n">
-        <v>2086.82</v>
+        <v>908.85</v>
       </c>
       <c r="D150" t="n">
         <v>0.275</v>
@@ -4340,13 +4340,13 @@
         <v>896</v>
       </c>
       <c r="F150" t="n">
-        <v>2985.1245</v>
+        <v>3309.06625</v>
       </c>
       <c r="G150" t="n">
-        <v>5071.944500000001</v>
+        <v>4217.91625</v>
       </c>
       <c r="H150" t="n">
-        <v>11128.0555</v>
+        <v>11982.08375</v>
       </c>
     </row>
     <row r="151">
@@ -4357,7 +4357,7 @@
         <v>16300</v>
       </c>
       <c r="C151" t="n">
-        <v>2100.82</v>
+        <v>908.85</v>
       </c>
       <c r="D151" t="n">
         <v>0.275</v>
@@ -4366,13 +4366,13 @@
         <v>896</v>
       </c>
       <c r="F151" t="n">
-        <v>3008.7745</v>
+        <v>3336.56625</v>
       </c>
       <c r="G151" t="n">
-        <v>5109.594500000001</v>
+        <v>4245.41625</v>
       </c>
       <c r="H151" t="n">
-        <v>11190.4055</v>
+        <v>12054.58375</v>
       </c>
     </row>
     <row r="152">
@@ -4383,7 +4383,7 @@
         <v>16400</v>
       </c>
       <c r="C152" t="n">
-        <v>2114.82</v>
+        <v>908.85</v>
       </c>
       <c r="D152" t="n">
         <v>0.275</v>
@@ -4392,13 +4392,13 @@
         <v>896</v>
       </c>
       <c r="F152" t="n">
-        <v>3032.424500000001</v>
+        <v>3364.06625</v>
       </c>
       <c r="G152" t="n">
-        <v>5147.244500000001</v>
+        <v>4272.91625</v>
       </c>
       <c r="H152" t="n">
-        <v>11252.7555</v>
+        <v>12127.08375</v>
       </c>
     </row>
     <row r="153">
@@ -4409,7 +4409,7 @@
         <v>16500</v>
       </c>
       <c r="C153" t="n">
-        <v>2128.82</v>
+        <v>908.85</v>
       </c>
       <c r="D153" t="n">
         <v>0.275</v>
@@ -4418,13 +4418,13 @@
         <v>896</v>
       </c>
       <c r="F153" t="n">
-        <v>3056.074500000001</v>
+        <v>3391.56625</v>
       </c>
       <c r="G153" t="n">
-        <v>5184.8945</v>
+        <v>4300.41625</v>
       </c>
       <c r="H153" t="n">
-        <v>11315.1055</v>
+        <v>12199.58375</v>
       </c>
     </row>
     <row r="154">
@@ -4435,7 +4435,7 @@
         <v>16600</v>
       </c>
       <c r="C154" t="n">
-        <v>2142.82</v>
+        <v>908.85</v>
       </c>
       <c r="D154" t="n">
         <v>0.275</v>
@@ -4444,13 +4444,13 @@
         <v>896</v>
       </c>
       <c r="F154" t="n">
-        <v>3079.7245</v>
+        <v>3419.06625</v>
       </c>
       <c r="G154" t="n">
-        <v>5222.5445</v>
+        <v>4327.91625</v>
       </c>
       <c r="H154" t="n">
-        <v>11377.4555</v>
+        <v>12272.08375</v>
       </c>
     </row>
     <row r="155">
@@ -4461,7 +4461,7 @@
         <v>16700</v>
       </c>
       <c r="C155" t="n">
-        <v>2156.82</v>
+        <v>908.85</v>
       </c>
       <c r="D155" t="n">
         <v>0.275</v>
@@ -4470,13 +4470,13 @@
         <v>896</v>
       </c>
       <c r="F155" t="n">
-        <v>3103.3745</v>
+        <v>3446.56625</v>
       </c>
       <c r="G155" t="n">
-        <v>5260.194500000001</v>
+        <v>4355.41625</v>
       </c>
       <c r="H155" t="n">
-        <v>11439.8055</v>
+        <v>12344.58375</v>
       </c>
     </row>
     <row r="156">
@@ -4487,7 +4487,7 @@
         <v>16800</v>
       </c>
       <c r="C156" t="n">
-        <v>2170.82</v>
+        <v>908.85</v>
       </c>
       <c r="D156" t="n">
         <v>0.275</v>
@@ -4496,13 +4496,13 @@
         <v>896</v>
       </c>
       <c r="F156" t="n">
-        <v>3127.0245</v>
+        <v>3474.06625</v>
       </c>
       <c r="G156" t="n">
-        <v>5297.844500000001</v>
+        <v>4382.91625</v>
       </c>
       <c r="H156" t="n">
-        <v>11502.1555</v>
+        <v>12417.08375</v>
       </c>
     </row>
     <row r="157">
@@ -4513,7 +4513,7 @@
         <v>16900</v>
       </c>
       <c r="C157" t="n">
-        <v>2184.82</v>
+        <v>908.85</v>
       </c>
       <c r="D157" t="n">
         <v>0.275</v>
@@ -4522,13 +4522,13 @@
         <v>896</v>
       </c>
       <c r="F157" t="n">
-        <v>3150.674500000001</v>
+        <v>3501.56625</v>
       </c>
       <c r="G157" t="n">
-        <v>5335.494500000001</v>
+        <v>4410.41625</v>
       </c>
       <c r="H157" t="n">
-        <v>11564.5055</v>
+        <v>12489.58375</v>
       </c>
     </row>
     <row r="158">
@@ -4539,7 +4539,7 @@
         <v>17000</v>
       </c>
       <c r="C158" t="n">
-        <v>2198.82</v>
+        <v>908.85</v>
       </c>
       <c r="D158" t="n">
         <v>0.275</v>
@@ -4548,13 +4548,13 @@
         <v>896</v>
       </c>
       <c r="F158" t="n">
-        <v>3174.324500000001</v>
+        <v>3529.06625</v>
       </c>
       <c r="G158" t="n">
-        <v>5373.1445</v>
+        <v>4437.91625</v>
       </c>
       <c r="H158" t="n">
-        <v>11626.8555</v>
+        <v>12562.08375</v>
       </c>
     </row>
     <row r="159">
@@ -4565,7 +4565,7 @@
         <v>17100</v>
       </c>
       <c r="C159" t="n">
-        <v>2212.82</v>
+        <v>908.85</v>
       </c>
       <c r="D159" t="n">
         <v>0.275</v>
@@ -4574,13 +4574,13 @@
         <v>896</v>
       </c>
       <c r="F159" t="n">
-        <v>3197.9745</v>
+        <v>3556.56625</v>
       </c>
       <c r="G159" t="n">
-        <v>5410.7945</v>
+        <v>4465.41625</v>
       </c>
       <c r="H159" t="n">
-        <v>11689.2055</v>
+        <v>12634.58375</v>
       </c>
     </row>
     <row r="160">
@@ -4591,7 +4591,7 @@
         <v>17200</v>
       </c>
       <c r="C160" t="n">
-        <v>2226.82</v>
+        <v>908.85</v>
       </c>
       <c r="D160" t="n">
         <v>0.275</v>
@@ -4600,13 +4600,13 @@
         <v>896</v>
       </c>
       <c r="F160" t="n">
-        <v>3221.624500000001</v>
+        <v>3584.06625</v>
       </c>
       <c r="G160" t="n">
-        <v>5448.444500000001</v>
+        <v>4492.91625</v>
       </c>
       <c r="H160" t="n">
-        <v>11751.5555</v>
+        <v>12707.08375</v>
       </c>
     </row>
     <row r="161">
@@ -4617,7 +4617,7 @@
         <v>17300</v>
       </c>
       <c r="C161" t="n">
-        <v>2240.82</v>
+        <v>908.85</v>
       </c>
       <c r="D161" t="n">
         <v>0.275</v>
@@ -4626,13 +4626,13 @@
         <v>896</v>
       </c>
       <c r="F161" t="n">
-        <v>3245.2745</v>
+        <v>3611.566250000001</v>
       </c>
       <c r="G161" t="n">
-        <v>5486.094500000001</v>
+        <v>4520.416250000001</v>
       </c>
       <c r="H161" t="n">
-        <v>11813.9055</v>
+        <v>12779.58375</v>
       </c>
     </row>
     <row r="162">
@@ -4643,7 +4643,7 @@
         <v>17400</v>
       </c>
       <c r="C162" t="n">
-        <v>2254.82</v>
+        <v>908.85</v>
       </c>
       <c r="D162" t="n">
         <v>0.275</v>
@@ -4652,13 +4652,13 @@
         <v>896</v>
       </c>
       <c r="F162" t="n">
-        <v>3268.9245</v>
+        <v>3639.066250000001</v>
       </c>
       <c r="G162" t="n">
-        <v>5523.744500000001</v>
+        <v>4547.916250000001</v>
       </c>
       <c r="H162" t="n">
-        <v>11876.2555</v>
+        <v>12852.08375</v>
       </c>
     </row>
     <row r="163">
@@ -4669,7 +4669,7 @@
         <v>17500</v>
       </c>
       <c r="C163" t="n">
-        <v>2268.82</v>
+        <v>908.85</v>
       </c>
       <c r="D163" t="n">
         <v>0.275</v>
@@ -4678,13 +4678,13 @@
         <v>896</v>
       </c>
       <c r="F163" t="n">
-        <v>3292.574500000001</v>
+        <v>3666.566250000001</v>
       </c>
       <c r="G163" t="n">
-        <v>5561.3945</v>
+        <v>4575.416250000001</v>
       </c>
       <c r="H163" t="n">
-        <v>11938.6055</v>
+        <v>12924.58375</v>
       </c>
     </row>
     <row r="164">
@@ -4695,7 +4695,7 @@
         <v>17600</v>
       </c>
       <c r="C164" t="n">
-        <v>2282.82</v>
+        <v>908.85</v>
       </c>
       <c r="D164" t="n">
         <v>0.275</v>
@@ -4704,13 +4704,13 @@
         <v>896</v>
       </c>
       <c r="F164" t="n">
-        <v>3316.2245</v>
+        <v>3694.066250000001</v>
       </c>
       <c r="G164" t="n">
-        <v>5599.0445</v>
+        <v>4602.916250000001</v>
       </c>
       <c r="H164" t="n">
-        <v>12000.9555</v>
+        <v>12997.08375</v>
       </c>
     </row>
     <row r="165">
@@ -4721,7 +4721,7 @@
         <v>17700</v>
       </c>
       <c r="C165" t="n">
-        <v>2296.82</v>
+        <v>908.85</v>
       </c>
       <c r="D165" t="n">
         <v>0.275</v>
@@ -4730,13 +4730,13 @@
         <v>896</v>
       </c>
       <c r="F165" t="n">
-        <v>3339.874500000001</v>
+        <v>3721.566250000001</v>
       </c>
       <c r="G165" t="n">
-        <v>5636.694500000001</v>
+        <v>4630.416250000001</v>
       </c>
       <c r="H165" t="n">
-        <v>12063.3055</v>
+        <v>13069.58375</v>
       </c>
     </row>
     <row r="166">
@@ -4747,7 +4747,7 @@
         <v>17800</v>
       </c>
       <c r="C166" t="n">
-        <v>2310.82</v>
+        <v>908.85</v>
       </c>
       <c r="D166" t="n">
         <v>0.275</v>
@@ -4756,13 +4756,13 @@
         <v>896</v>
       </c>
       <c r="F166" t="n">
-        <v>3363.5245</v>
+        <v>3749.066250000001</v>
       </c>
       <c r="G166" t="n">
-        <v>5674.344500000001</v>
+        <v>4657.916250000001</v>
       </c>
       <c r="H166" t="n">
-        <v>12125.6555</v>
+        <v>13142.08375</v>
       </c>
     </row>
     <row r="167">
@@ -4773,7 +4773,7 @@
         <v>17900</v>
       </c>
       <c r="C167" t="n">
-        <v>2324.82</v>
+        <v>908.85</v>
       </c>
       <c r="D167" t="n">
         <v>0.275</v>
@@ -4782,13 +4782,13 @@
         <v>896</v>
       </c>
       <c r="F167" t="n">
-        <v>3387.1745</v>
+        <v>3776.566250000001</v>
       </c>
       <c r="G167" t="n">
-        <v>5711.994500000001</v>
+        <v>4685.416250000001</v>
       </c>
       <c r="H167" t="n">
-        <v>12188.0055</v>
+        <v>13214.58375</v>
       </c>
     </row>
     <row r="168">
@@ -4799,7 +4799,7 @@
         <v>18000</v>
       </c>
       <c r="C168" t="n">
-        <v>2338.82</v>
+        <v>908.85</v>
       </c>
       <c r="D168" t="n">
         <v>0.275</v>
@@ -4808,13 +4808,13 @@
         <v>896</v>
       </c>
       <c r="F168" t="n">
-        <v>3410.824500000001</v>
+        <v>3804.066250000001</v>
       </c>
       <c r="G168" t="n">
-        <v>5749.6445</v>
+        <v>4712.916250000001</v>
       </c>
       <c r="H168" t="n">
-        <v>12250.3555</v>
+        <v>13287.08375</v>
       </c>
     </row>
     <row r="169">
@@ -4825,7 +4825,7 @@
         <v>18100</v>
       </c>
       <c r="C169" t="n">
-        <v>2352.82</v>
+        <v>908.85</v>
       </c>
       <c r="D169" t="n">
         <v>0.275</v>
@@ -4834,13 +4834,13 @@
         <v>896</v>
       </c>
       <c r="F169" t="n">
-        <v>3434.4745</v>
+        <v>3831.566250000001</v>
       </c>
       <c r="G169" t="n">
-        <v>5787.2945</v>
+        <v>4740.416250000001</v>
       </c>
       <c r="H169" t="n">
-        <v>12312.7055</v>
+        <v>13359.58375</v>
       </c>
     </row>
     <row r="170">
@@ -4851,7 +4851,7 @@
         <v>18200</v>
       </c>
       <c r="C170" t="n">
-        <v>2366.82</v>
+        <v>908.85</v>
       </c>
       <c r="D170" t="n">
         <v>0.275</v>
@@ -4860,13 +4860,13 @@
         <v>896</v>
       </c>
       <c r="F170" t="n">
-        <v>3458.124500000001</v>
+        <v>3859.066250000001</v>
       </c>
       <c r="G170" t="n">
-        <v>5824.944500000001</v>
+        <v>4767.916250000001</v>
       </c>
       <c r="H170" t="n">
-        <v>12375.0555</v>
+        <v>13432.08375</v>
       </c>
     </row>
     <row r="171">
@@ -4877,7 +4877,7 @@
         <v>18300</v>
       </c>
       <c r="C171" t="n">
-        <v>2380.82</v>
+        <v>908.85</v>
       </c>
       <c r="D171" t="n">
         <v>0.275</v>
@@ -4886,13 +4886,13 @@
         <v>896</v>
       </c>
       <c r="F171" t="n">
-        <v>3481.7745</v>
+        <v>3886.566250000001</v>
       </c>
       <c r="G171" t="n">
-        <v>5862.594500000001</v>
+        <v>4795.416250000001</v>
       </c>
       <c r="H171" t="n">
-        <v>12437.4055</v>
+        <v>13504.58375</v>
       </c>
     </row>
     <row r="172">
@@ -4903,7 +4903,7 @@
         <v>18400</v>
       </c>
       <c r="C172" t="n">
-        <v>2394.82</v>
+        <v>908.85</v>
       </c>
       <c r="D172" t="n">
         <v>0.275</v>
@@ -4912,13 +4912,13 @@
         <v>896</v>
       </c>
       <c r="F172" t="n">
-        <v>3505.4245</v>
+        <v>3914.066250000001</v>
       </c>
       <c r="G172" t="n">
-        <v>5900.244500000001</v>
+        <v>4822.916250000001</v>
       </c>
       <c r="H172" t="n">
-        <v>12499.7555</v>
+        <v>13577.08375</v>
       </c>
     </row>
     <row r="173">
@@ -4929,7 +4929,7 @@
         <v>18500</v>
       </c>
       <c r="C173" t="n">
-        <v>2408.82</v>
+        <v>908.85</v>
       </c>
       <c r="D173" t="n">
         <v>0.275</v>
@@ -4938,13 +4938,13 @@
         <v>896</v>
       </c>
       <c r="F173" t="n">
-        <v>3529.074500000001</v>
+        <v>3941.566250000001</v>
       </c>
       <c r="G173" t="n">
-        <v>5937.8945</v>
+        <v>4850.416250000001</v>
       </c>
       <c r="H173" t="n">
-        <v>12562.1055</v>
+        <v>13649.58375</v>
       </c>
     </row>
     <row r="174">
@@ -4955,7 +4955,7 @@
         <v>18600</v>
       </c>
       <c r="C174" t="n">
-        <v>2422.82</v>
+        <v>908.85</v>
       </c>
       <c r="D174" t="n">
         <v>0.275</v>
@@ -4964,13 +4964,13 @@
         <v>896</v>
       </c>
       <c r="F174" t="n">
-        <v>3552.7245</v>
+        <v>3969.066250000001</v>
       </c>
       <c r="G174" t="n">
-        <v>5975.5445</v>
+        <v>4877.916250000001</v>
       </c>
       <c r="H174" t="n">
-        <v>12624.4555</v>
+        <v>13722.08375</v>
       </c>
     </row>
     <row r="175">
@@ -4981,7 +4981,7 @@
         <v>18700</v>
       </c>
       <c r="C175" t="n">
-        <v>2436.82</v>
+        <v>908.85</v>
       </c>
       <c r="D175" t="n">
         <v>0.275</v>
@@ -4990,13 +4990,13 @@
         <v>896</v>
       </c>
       <c r="F175" t="n">
-        <v>3576.374500000001</v>
+        <v>3996.566250000001</v>
       </c>
       <c r="G175" t="n">
-        <v>6013.194500000001</v>
+        <v>4905.416250000001</v>
       </c>
       <c r="H175" t="n">
-        <v>12686.8055</v>
+        <v>13794.58375</v>
       </c>
     </row>
     <row r="176">
@@ -5007,7 +5007,7 @@
         <v>18800</v>
       </c>
       <c r="C176" t="n">
-        <v>2450.82</v>
+        <v>908.85</v>
       </c>
       <c r="D176" t="n">
         <v>0.275</v>
@@ -5016,13 +5016,13 @@
         <v>896</v>
       </c>
       <c r="F176" t="n">
-        <v>3600.0245</v>
+        <v>4024.066250000001</v>
       </c>
       <c r="G176" t="n">
-        <v>6050.844500000001</v>
+        <v>4932.916250000001</v>
       </c>
       <c r="H176" t="n">
-        <v>12749.1555</v>
+        <v>13867.08375</v>
       </c>
     </row>
     <row r="177">
@@ -5033,7 +5033,7 @@
         <v>18900</v>
       </c>
       <c r="C177" t="n">
-        <v>2464.82</v>
+        <v>908.85</v>
       </c>
       <c r="D177" t="n">
         <v>0.275</v>
@@ -5042,13 +5042,13 @@
         <v>896</v>
       </c>
       <c r="F177" t="n">
-        <v>3623.6745</v>
+        <v>4051.566250000001</v>
       </c>
       <c r="G177" t="n">
-        <v>6088.494500000001</v>
+        <v>4960.416250000001</v>
       </c>
       <c r="H177" t="n">
-        <v>12811.5055</v>
+        <v>13939.58375</v>
       </c>
     </row>
     <row r="178">
@@ -5059,7 +5059,7 @@
         <v>19000</v>
       </c>
       <c r="C178" t="n">
-        <v>2478.82</v>
+        <v>908.85</v>
       </c>
       <c r="D178" t="n">
         <v>0.275</v>
@@ -5068,13 +5068,13 @@
         <v>896</v>
       </c>
       <c r="F178" t="n">
-        <v>3647.324500000001</v>
+        <v>4079.066250000001</v>
       </c>
       <c r="G178" t="n">
-        <v>6126.1445</v>
+        <v>4987.916250000001</v>
       </c>
       <c r="H178" t="n">
-        <v>12873.8555</v>
+        <v>14012.08375</v>
       </c>
     </row>
     <row r="179">
@@ -5085,7 +5085,7 @@
         <v>19100</v>
       </c>
       <c r="C179" t="n">
-        <v>2492.82</v>
+        <v>908.85</v>
       </c>
       <c r="D179" t="n">
         <v>0.275</v>
@@ -5094,13 +5094,13 @@
         <v>896</v>
       </c>
       <c r="F179" t="n">
-        <v>3670.9745</v>
+        <v>4106.566250000001</v>
       </c>
       <c r="G179" t="n">
-        <v>6163.7945</v>
+        <v>5015.416250000001</v>
       </c>
       <c r="H179" t="n">
-        <v>12936.2055</v>
+        <v>14084.58375</v>
       </c>
     </row>
     <row r="180">
@@ -5111,7 +5111,7 @@
         <v>19200</v>
       </c>
       <c r="C180" t="n">
-        <v>2506.82</v>
+        <v>908.85</v>
       </c>
       <c r="D180" t="n">
         <v>0.275</v>
@@ -5120,13 +5120,13 @@
         <v>896</v>
       </c>
       <c r="F180" t="n">
-        <v>3694.624500000001</v>
+        <v>4134.066250000001</v>
       </c>
       <c r="G180" t="n">
-        <v>6201.444500000001</v>
+        <v>5042.916250000001</v>
       </c>
       <c r="H180" t="n">
-        <v>12998.5555</v>
+        <v>14157.08375</v>
       </c>
     </row>
     <row r="181">
@@ -5137,7 +5137,7 @@
         <v>19300</v>
       </c>
       <c r="C181" t="n">
-        <v>2520.82</v>
+        <v>908.85</v>
       </c>
       <c r="D181" t="n">
         <v>0.275</v>
@@ -5146,13 +5146,13 @@
         <v>896</v>
       </c>
       <c r="F181" t="n">
-        <v>3718.2745</v>
+        <v>4161.566250000001</v>
       </c>
       <c r="G181" t="n">
-        <v>6239.094500000001</v>
+        <v>5070.416250000001</v>
       </c>
       <c r="H181" t="n">
-        <v>13060.9055</v>
+        <v>14229.58375</v>
       </c>
     </row>
     <row r="182">
@@ -5163,7 +5163,7 @@
         <v>19400</v>
       </c>
       <c r="C182" t="n">
-        <v>2534.82</v>
+        <v>908.85</v>
       </c>
       <c r="D182" t="n">
         <v>0.275</v>
@@ -5172,13 +5172,13 @@
         <v>896</v>
       </c>
       <c r="F182" t="n">
-        <v>3741.9245</v>
+        <v>4189.066250000001</v>
       </c>
       <c r="G182" t="n">
-        <v>6276.744500000001</v>
+        <v>5097.916250000001</v>
       </c>
       <c r="H182" t="n">
-        <v>13123.2555</v>
+        <v>14302.08375</v>
       </c>
     </row>
     <row r="183">
@@ -5189,7 +5189,7 @@
         <v>19500</v>
       </c>
       <c r="C183" t="n">
-        <v>2548.82</v>
+        <v>908.85</v>
       </c>
       <c r="D183" t="n">
         <v>0.275</v>
@@ -5198,13 +5198,13 @@
         <v>896</v>
       </c>
       <c r="F183" t="n">
-        <v>3765.574500000001</v>
+        <v>4216.566250000001</v>
       </c>
       <c r="G183" t="n">
-        <v>6314.3945</v>
+        <v>5125.416250000001</v>
       </c>
       <c r="H183" t="n">
-        <v>13185.6055</v>
+        <v>14374.58375</v>
       </c>
     </row>
     <row r="184">
@@ -5215,7 +5215,7 @@
         <v>19600</v>
       </c>
       <c r="C184" t="n">
-        <v>2562.82</v>
+        <v>908.85</v>
       </c>
       <c r="D184" t="n">
         <v>0.275</v>
@@ -5224,13 +5224,13 @@
         <v>896</v>
       </c>
       <c r="F184" t="n">
-        <v>3789.2245</v>
+        <v>4244.066250000001</v>
       </c>
       <c r="G184" t="n">
-        <v>6352.0445</v>
+        <v>5152.916250000001</v>
       </c>
       <c r="H184" t="n">
-        <v>13247.9555</v>
+        <v>14447.08375</v>
       </c>
     </row>
     <row r="185">
@@ -5241,7 +5241,7 @@
         <v>19700</v>
       </c>
       <c r="C185" t="n">
-        <v>2576.82</v>
+        <v>908.85</v>
       </c>
       <c r="D185" t="n">
         <v>0.275</v>
@@ -5250,13 +5250,13 @@
         <v>896</v>
       </c>
       <c r="F185" t="n">
-        <v>3812.874500000001</v>
+        <v>4271.566250000001</v>
       </c>
       <c r="G185" t="n">
-        <v>6389.694500000001</v>
+        <v>5180.416250000001</v>
       </c>
       <c r="H185" t="n">
-        <v>13310.3055</v>
+        <v>14519.58375</v>
       </c>
     </row>
     <row r="186">
@@ -5267,7 +5267,7 @@
         <v>19800</v>
       </c>
       <c r="C186" t="n">
-        <v>2590.82</v>
+        <v>908.85</v>
       </c>
       <c r="D186" t="n">
         <v>0.275</v>
@@ -5276,13 +5276,13 @@
         <v>896</v>
       </c>
       <c r="F186" t="n">
-        <v>3836.5245</v>
+        <v>4299.066250000001</v>
       </c>
       <c r="G186" t="n">
-        <v>6427.344500000001</v>
+        <v>5207.916250000001</v>
       </c>
       <c r="H186" t="n">
-        <v>13372.6555</v>
+        <v>14592.08375</v>
       </c>
     </row>
     <row r="187">
@@ -5293,7 +5293,7 @@
         <v>19900</v>
       </c>
       <c r="C187" t="n">
-        <v>2604.82</v>
+        <v>908.85</v>
       </c>
       <c r="D187" t="n">
         <v>0.275</v>
@@ -5302,13 +5302,13 @@
         <v>896</v>
       </c>
       <c r="F187" t="n">
-        <v>3860.1745</v>
+        <v>4326.566250000001</v>
       </c>
       <c r="G187" t="n">
-        <v>6464.994500000001</v>
+        <v>5235.416250000001</v>
       </c>
       <c r="H187" t="n">
-        <v>13435.0055</v>
+        <v>14664.58375</v>
       </c>
     </row>
     <row r="188">
@@ -5319,7 +5319,7 @@
         <v>20000</v>
       </c>
       <c r="C188" t="n">
-        <v>2618.82</v>
+        <v>908.85</v>
       </c>
       <c r="D188" t="n">
         <v>0.275</v>
@@ -5328,13 +5328,13 @@
         <v>896</v>
       </c>
       <c r="F188" t="n">
-        <v>3883.824500000001</v>
+        <v>4354.066250000001</v>
       </c>
       <c r="G188" t="n">
-        <v>6502.6445</v>
+        <v>5262.916250000001</v>
       </c>
       <c r="H188" t="n">
-        <v>13497.3555</v>
+        <v>14737.08375</v>
       </c>
     </row>
   </sheetData>
